--- a/data/case1/2/P1_14.xlsx
+++ b/data/case1/2/P1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.11307878850708164</v>
+        <v>0.061818241674302499</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999995500859029</v>
+        <v>-0.036376383531251832</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999995551348633</v>
+        <v>-0.0089999994876368561</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28399324330867159</v>
+        <v>0.28399094447783924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999995675923401</v>
+        <v>-0.0059999995038975129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999995532606931</v>
+        <v>-0.037420417724664645</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.032091369320292884</v>
+        <v>-0.019999999397656509</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999478752528</v>
+        <v>0.019302722220913893</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.005999999546071777</v>
+        <v>-0.0059999994838229043</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999995440449538</v>
+        <v>-0.0059999994815740365</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.037529096036159615</v>
+        <v>-0.0044999994911414376</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999995423840602</v>
+        <v>-0.0059999994812791613</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999995353514635</v>
+        <v>-0.0059999994808510593</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999503267134</v>
+        <v>-0.011999999442631193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999995317694399</v>
+        <v>-0.005999999481974605</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999995303945397</v>
+        <v>0.036816884431109642</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.005999999528514266</v>
+        <v>-0.0059999994815846946</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999995131462285</v>
+        <v>-0.0089999994618628065</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.039569649210529523</v>
+        <v>-0.0089999994875329392</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999995418166279</v>
+        <v>-0.0089999994830627372</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999995395180221</v>
+        <v>-0.0089999994824063734</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.054767753506216099</v>
+        <v>-0.0089999994819125462</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999995516647502</v>
+        <v>-0.0089999994829232932</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999379675579</v>
+        <v>-0.041999999261983056</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999376595376</v>
+        <v>-0.043831854645389079</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999995521913263</v>
+        <v>-0.0059999994857449224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.005999999550467372</v>
+        <v>-0.0059999994830617354</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.005999999544135548</v>
+        <v>-0.0059999994717365723</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0068280107403015933</v>
+        <v>-0.011999999425324148</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999466770113</v>
+        <v>-0.019999999370311272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999487594451</v>
+        <v>-0.014999999396946961</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999456964957</v>
+        <v>-0.020999999357614207</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999995318076316</v>
+        <v>-0.0059999994534685186</v>
       </c>
     </row>
   </sheetData>
